--- a/SetUp-Database/db.xlsx
+++ b/SetUp-Database/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="525" windowWidth="14055" windowHeight="5580" tabRatio="704" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="510" yWindow="525" windowWidth="14055" windowHeight="5580" tabRatio="704" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="List table" sheetId="1" r:id="rId1"/>
@@ -430,21 +430,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,6 +452,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -686,83 +686,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -786,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -799,130 +799,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -948,176 +948,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -1150,158 +1150,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1329,150 +1329,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -1518,12 +1518,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1546,16 +1546,16 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1564,37 +1564,37 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1604,7 +1604,7 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1614,7 +1614,7 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1646,88 +1646,88 @@
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1751,12 +1751,12 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1773,25 +1773,25 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D4" s="1"/>
@@ -1837,7 +1837,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1849,70 +1849,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1923,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1949,25 +1949,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="1"/>
